--- a/output/analysis/td_avg-micro.xlsx
+++ b/output/analysis/td_avg-micro.xlsx
@@ -466,8 +466,8 @@
   </sheetPr>
   <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O22" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V43" activeCellId="0" sqref="V43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -728,16 +728,13 @@
         <v>10</v>
       </c>
       <c r="T5" s="1" t="n">
-        <f aca="false">SUM(N5,H5,B5)/3</f>
-        <v>0.776666666666667</v>
+        <v>0.776249790357166</v>
       </c>
       <c r="U5" s="1" t="n">
-        <f aca="false">SUM(O5,I5,C5)/3</f>
-        <v>0.776666666666667</v>
+        <v>0.777011729258582</v>
       </c>
       <c r="V5" s="1" t="n">
-        <f aca="false">SUM(P5,J5,D5)/3</f>
-        <v>0.776666666666667</v>
+        <v>0.77663057292663</v>
       </c>
       <c r="W5" s="1" t="n">
         <f aca="false">SUM(W3:W4)</f>
@@ -1037,16 +1034,13 @@
         <v>10</v>
       </c>
       <c r="T12" s="1" t="n">
-        <f aca="false">SUM(B12,H12,N12)/3</f>
-        <v>0.87</v>
+        <v>0.865830088547827</v>
       </c>
       <c r="U12" s="1" t="n">
-        <f aca="false">SUM(C12,I12,O12)/3</f>
-        <v>0.87</v>
+        <v>0.863887902748642</v>
       </c>
       <c r="V12" s="1" t="n">
-        <f aca="false">SUM(D12,J12,P12)/3</f>
-        <v>0.87</v>
+        <v>0.864857905272319</v>
       </c>
       <c r="W12" s="1" t="n">
         <f aca="false">SUM(W10:W11)</f>
@@ -1362,16 +1356,13 @@
         <v>10</v>
       </c>
       <c r="T21" s="1" t="n">
-        <f aca="false">SUM(N21,H21,B21)/3</f>
-        <v>0.883333333333333</v>
+        <v>0.880098938598055</v>
       </c>
       <c r="U21" s="1" t="n">
-        <f aca="false">SUM(O21,I21,C21)/3</f>
-        <v>0.883333333333333</v>
+        <v>0.884596470461638</v>
       </c>
       <c r="V21" s="1" t="n">
-        <f aca="false">SUM(P21,J21,D21)/3</f>
-        <v>0.883333333333333</v>
+        <v>0.882341973287854</v>
       </c>
       <c r="W21" s="1" t="n">
         <f aca="false">SUM(Q21,K21,E21)</f>
@@ -1671,16 +1662,13 @@
         <v>10</v>
       </c>
       <c r="T28" s="1" t="n">
-        <f aca="false">SUM(B28,H28,N28)/3</f>
-        <v>0.89</v>
+        <v>0.891608262080643</v>
       </c>
       <c r="U28" s="1" t="n">
-        <f aca="false">SUM(C28,I28,O28)/3</f>
-        <v>0.89</v>
+        <v>0.89075090097359</v>
       </c>
       <c r="V28" s="1" t="n">
-        <f aca="false">SUM(D28,J28,P28)/3</f>
-        <v>0.89</v>
+        <v>0.891179375320623</v>
       </c>
       <c r="W28" s="1" t="n">
         <f aca="false">SUM(E28,K28,Q28)</f>
@@ -1980,16 +1968,13 @@
         <v>10</v>
       </c>
       <c r="T36" s="1" t="n">
-        <f aca="false">SUM(N36,H36,B36)/3</f>
-        <v>0.89</v>
+        <v>0.888383514663969</v>
       </c>
       <c r="U36" s="1" t="n">
-        <f aca="false">SUM(O36,I36,C36)/3</f>
-        <v>0.89</v>
+        <v>0.889371569998924</v>
       </c>
       <c r="V36" s="1" t="n">
-        <f aca="false">SUM(P36,J36,D36)/3</f>
-        <v>0.89</v>
+        <v>0.888877267756688</v>
       </c>
       <c r="W36" s="1" t="n">
         <f aca="false">SUM(Q36,K36,E36)</f>
@@ -2289,16 +2274,13 @@
         <v>10</v>
       </c>
       <c r="T43" s="1" t="n">
-        <f aca="false">SUM(B43,H43,N43)/3</f>
-        <v>0.893333333333333</v>
+        <v>0.895208444752489</v>
       </c>
       <c r="U43" s="1" t="n">
-        <f aca="false">SUM(C43,I43,O43)/3</f>
-        <v>0.893333333333333</v>
+        <v>0.893503845946963</v>
       </c>
       <c r="V43" s="1" t="n">
-        <f aca="false">SUM(D43,J43,P43)/3</f>
-        <v>0.893333333333333</v>
+        <v>0.894355333129364</v>
       </c>
       <c r="W43" s="1" t="n">
         <f aca="false">SUM(E43,K43,Q43)</f>
@@ -2370,8 +2352,8 @@
   </sheetPr>
   <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H24" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y34" activeCellId="0" sqref="Y34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H32" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T12" activeCellId="0" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2632,16 +2614,13 @@
         <v>10</v>
       </c>
       <c r="T5" s="1" t="n">
-        <f aca="false">SUM(N5,H5,B5)/3</f>
-        <v>0.746666666666667</v>
+        <v>0.747266475054323</v>
       </c>
       <c r="U5" s="1" t="n">
-        <f aca="false">SUM(O5,I5,C5)/3</f>
-        <v>0.746666666666667</v>
+        <v>0.746352451666129</v>
       </c>
       <c r="V5" s="1" t="n">
-        <f aca="false">SUM(P5,J5,D5)/3</f>
-        <v>0.746666666666667</v>
+        <v>0.746809183690914</v>
       </c>
       <c r="W5" s="1" t="n">
         <f aca="false">SUM(W3:W4)</f>
@@ -2941,16 +2920,13 @@
         <v>10</v>
       </c>
       <c r="T12" s="1" t="n">
-        <f aca="false">SUM(B12,H12,N12)/3</f>
-        <v>0.866666666666667</v>
+        <v>0.862280324098981</v>
       </c>
       <c r="U12" s="1" t="n">
-        <f aca="false">SUM(C12,I12,O12)/3</f>
-        <v>0.866666666666667</v>
+        <v>0.863887902748642</v>
       </c>
       <c r="V12" s="1" t="n">
-        <f aca="false">SUM(D12,J12,P12)/3</f>
-        <v>0.866666666666667</v>
+        <v>0.863083364855661</v>
       </c>
       <c r="W12" s="1" t="n">
         <f aca="false">SUM(W10:W11)</f>
@@ -3266,16 +3242,13 @@
         <v>10</v>
       </c>
       <c r="T21" s="1" t="n">
-        <f aca="false">SUM(N21,H21,B21)/3</f>
-        <v>0.883333333333333</v>
+        <v>0.881221888905963</v>
       </c>
       <c r="U21" s="1" t="n">
-        <f aca="false">SUM(O21,I21,C21)/3</f>
-        <v>0.883333333333333</v>
+        <v>0.881940887406291</v>
       </c>
       <c r="V21" s="1" t="n">
-        <f aca="false">SUM(P21,J21,D21)/3</f>
-        <v>0.883333333333333</v>
+        <v>0.881581241556264</v>
       </c>
       <c r="W21" s="1" t="n">
         <f aca="false">SUM(W19:W20)</f>
@@ -3575,16 +3548,13 @@
         <v>10</v>
       </c>
       <c r="T28" s="1" t="n">
-        <f aca="false">SUM(B28,H28,N28)/3</f>
-        <v>0.886666666666667</v>
+        <v>0.885791663307363</v>
       </c>
       <c r="U28" s="1" t="n">
-        <f aca="false">SUM(C28,I28,O28)/3</f>
-        <v>0.886666666666667</v>
+        <v>0.889581517938788</v>
       </c>
       <c r="V28" s="1" t="n">
-        <f aca="false">SUM(D28,J28,P28)/3</f>
-        <v>0.886666666666667</v>
+        <v>0.887682545558556</v>
       </c>
       <c r="W28" s="1" t="n">
         <f aca="false">SUM(W26:W27)</f>
@@ -3884,16 +3854,13 @@
         <v>10</v>
       </c>
       <c r="T37" s="1" t="n">
-        <f aca="false">SUM(N37,H37,B37)/3</f>
-        <v>0.89</v>
+        <v>0.892768552384342</v>
       </c>
       <c r="U37" s="1" t="n">
-        <f aca="false">SUM(O37,I37,C37)/3</f>
-        <v>0.89</v>
+        <v>0.892322895369274</v>
       </c>
       <c r="V37" s="1" t="n">
-        <f aca="false">SUM(P37,J37,D37)/3</f>
-        <v>0.89</v>
+        <v>0.892545668246556</v>
       </c>
       <c r="W37" s="1" t="n">
         <f aca="false">SUM(W35:W36)</f>
@@ -4193,16 +4160,13 @@
         <v>10</v>
       </c>
       <c r="T44" s="1" t="n">
-        <f aca="false">SUM(B44,H44,N44)/3</f>
-        <v>0.896666666666667</v>
+        <v>0.894685516028126</v>
       </c>
       <c r="U44" s="1" t="n">
-        <f aca="false">SUM(C44,I44,O44)/3</f>
-        <v>0.896666666666667</v>
+        <v>0.897033510838578</v>
       </c>
       <c r="V44" s="1" t="n">
-        <f aca="false">SUM(D44,J44,P44)/3</f>
-        <v>0.896666666666667</v>
+        <v>0.895857974944463</v>
       </c>
       <c r="W44" s="1" t="n">
         <f aca="false">SUM(W42:W43)</f>
